--- a/Predictions_QWEN0.5B/wave1_all_predictionsFINAL/finetuned_predictions_imputed_w1 (1).xlsx
+++ b/Predictions_QWEN0.5B/wave1_all_predictionsFINAL/finetuned_predictions_imputed_w1 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_Yearwise_Materials\PhD Year 3 Materials\NLPOR 2025\LLM-NLPOR-Work\Predictions_QWEN0.5B\wave1_all_predictionsFINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3757A-0F3D-4D42-9CAF-4B7030B34DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BB3438-03D7-44D4-96D7-533B1D60918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4304" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="14">
   <si>
     <t>Predicted_Label</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">k = </t>
+  </si>
+  <si>
+    <t>f_0</t>
+  </si>
+  <si>
+    <t>f_c</t>
+  </si>
+  <si>
+    <t>Sigma_k</t>
   </si>
 </sst>
 </file>
@@ -9124,7 +9133,7 @@
   <dimension ref="A1:J2146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9302,6 +9311,12 @@
         <f>1731/2145</f>
         <v>0.80699300699300702</v>
       </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>1731</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -9316,6 +9331,12 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>1731</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -9325,15 +9346,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <f>SQRT(J14*(1-(J14/2145)))/(2145-J15)</f>
+        <v>4.4150407370686866E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -9341,7 +9369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -9349,7 +9377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -9357,7 +9385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -9365,7 +9393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -9373,7 +9401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -9381,7 +9409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -9389,7 +9417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -9397,7 +9425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -9405,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -9413,7 +9441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -9421,7 +9449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -9429,7 +9457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -9437,7 +9465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -9445,7 +9473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
